--- a/data/HR1/Market Data/HR1_market_data_2030.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2030.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_3\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F080E7-1AEF-474D-A898-6D3428E677D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944C2480-C7A9-4157-B5DF-31C8009C0040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2222,24 +2222,23 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -2253,7 +2252,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2275,9 +2274,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>43.908729485095385</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>45.676124885753318</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>48.238848216707311</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2683,7 +2682,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2723,9 +2722,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>26.638559364726188</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>17.921183618748998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>13.748108004668875</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3131,7 +3130,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3157,7 +3156,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3196,9 +3195,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>61.290447976121584</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>57.603804488836069</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>70.404649930799636</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3604,7 +3603,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3643,9 +3642,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>38.082515189841622</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>46.851094317586671</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>40.642684278234334</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4051,7 +4050,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4090,9 +4089,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4169,7 +4168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>42.130287863183348</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4371,7 +4370,7 @@
         <v>46.946440329976198</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4472,7 +4471,7 @@
         <v>49.707995643504212</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4498,7 +4497,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4538,9 +4537,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4718,7 +4717,7 @@
         <v>10.099867053709257</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4819,7 +4818,7 @@
         <v>8.7429774368611195</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>9.4726256270530431</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4946,7 +4945,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4972,7 +4971,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5011,9 +5010,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>45.314992864551037</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>47.875161952943756</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>51.203381767854282</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5419,7 +5418,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5458,9 +5457,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>35.816765546614072</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>33.525414212502596</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>38.64575238928802</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5866,7 +5865,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/data/HR1/Market Data/HR1_market_data_2030.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944C2480-C7A9-4157-B5DF-31C8009C0040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748AC1F-3618-451D-9B54-34F7A0E16D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24945" yWindow="3885" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2225,20 +2225,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -2252,7 +2253,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2274,9 +2275,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>43.908729485095385</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>45.676124885753318</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>48.238848216707311</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2682,7 +2683,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2722,9 +2723,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>26.638559364726188</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>17.921183618748998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>13.748108004668875</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3130,7 +3131,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3156,7 +3157,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3195,9 +3196,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>61.290447976121584</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>57.603804488836069</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>70.404649930799636</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3603,7 +3604,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3642,9 +3643,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>38.082515189841622</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>46.851094317586671</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>40.642684278234334</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4050,7 +4051,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4089,9 +4090,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>42.130287863183348</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>46.946440329976198</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>49.707995643504212</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4497,7 +4498,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4537,9 +4538,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>10.099867053709257</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>8.7429774368611195</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>9.4726256270530431</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4945,7 +4946,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4971,7 +4972,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5010,9 +5011,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5089,7 +5090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>45.314992864551037</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>47.875161952943756</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5392,7 +5393,7 @@
         <v>51.203381767854282</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5418,7 +5419,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5457,9 +5458,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>35.816765546614072</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>33.525414212502596</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>38.64575238928802</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5865,7 +5866,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
